--- a/src/secure-part/output.xlsx
+++ b/src/secure-part/output.xlsx
@@ -16,16 +16,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">'보안'!$A$1:$J$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'보안'!$B3:$F38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'10월'!$B3:$F38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'10월'!$B3:$F39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'11월'!$B3:$F38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'12월'!$B3:$F38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'12월'!$B3:$F39</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="184">
   <si>
     <t>연번</t>
   </si>
@@ -228,202 +228,465 @@
     <t xml:space="preserve">                                          * 보안근무자 휴가시 대직자 대행</t>
   </si>
   <si>
+    <t>10월 01일</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>토</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>공휴일</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10월 02일</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>10월 03일</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>월</t>
+    </r>
+  </si>
+  <si>
     <t>10월 04일</t>
   </si>
   <si>
-    <t>김대희</t>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>화</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>김대희</t>
+    </r>
   </si>
   <si>
     <t>10월 05일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>수</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>신효경</t>
+    </r>
+  </si>
+  <si>
     <t>10월 06일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>목</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>송인심</t>
+    </r>
+  </si>
+  <si>
     <t>10월 07일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>금</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>최원정</t>
+    </r>
+  </si>
+  <si>
+    <t>10월 08일</t>
+  </si>
+  <si>
+    <t>10월 09일</t>
+  </si>
+  <si>
+    <t>10월 10일</t>
+  </si>
+  <si>
     <t>10월 11일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>이진희</t>
+    </r>
+  </si>
+  <si>
     <t>10월 12일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>김미옥</t>
+    </r>
+  </si>
+  <si>
     <t>10월 13일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>김미림</t>
+    </r>
+  </si>
+  <si>
     <t>10월 14일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>김선명</t>
+    </r>
+  </si>
+  <si>
+    <t>10월 15일</t>
+  </si>
+  <si>
+    <t>10월 16일</t>
+  </si>
+  <si>
     <t>10월 17일</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>정대교</t>
+    </r>
+  </si>
+  <si>
+    <t>10월 18일</t>
+  </si>
+  <si>
+    <t>10월 19일</t>
+  </si>
+  <si>
+    <t>10월 20일</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>김보미</t>
+    </r>
+  </si>
+  <si>
+    <t>10월 21일</t>
+  </si>
+  <si>
+    <t>10월 22일</t>
+  </si>
+  <si>
+    <t>10월 23일</t>
+  </si>
+  <si>
+    <t>10월 24일</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>최진아</t>
+    </r>
+  </si>
+  <si>
+    <t>10월 25일</t>
+  </si>
+  <si>
+    <t>10월 26일</t>
+  </si>
+  <si>
+    <t>10월 27일</t>
+  </si>
+  <si>
+    <t>10월 28일</t>
+  </si>
+  <si>
+    <t>10월 29일</t>
+  </si>
+  <si>
+    <t>10월 30일</t>
+  </si>
+  <si>
+    <t>10월 31일</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>현지원</t>
+    </r>
+  </si>
+  <si>
+    <t>11월 01일</t>
+  </si>
+  <si>
+    <t>11월 02일</t>
+  </si>
+  <si>
+    <t>11월 03일</t>
+  </si>
+  <si>
+    <t>11월 04일</t>
+  </si>
+  <si>
+    <t>11월 05일</t>
+  </si>
+  <si>
+    <t>11월 06일</t>
+  </si>
+  <si>
+    <t>11월 07일</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>김신예</t>
+    </r>
+  </si>
+  <si>
+    <t>11월 08일</t>
+  </si>
+  <si>
+    <t>11월 09일</t>
+  </si>
+  <si>
+    <t>11월 10일</t>
+  </si>
+  <si>
+    <t>11월 11일</t>
+  </si>
+  <si>
+    <t>11월 12일</t>
+  </si>
+  <si>
+    <t>11월 13일</t>
+  </si>
+  <si>
+    <t>11월 14일</t>
+  </si>
+  <si>
+    <t>11월 15일</t>
+  </si>
+  <si>
+    <t>11월 16일</t>
+  </si>
+  <si>
+    <t>11월 17일</t>
+  </si>
+  <si>
+    <t>11월 18일</t>
+  </si>
+  <si>
+    <t>11월 19일</t>
+  </si>
+  <si>
+    <t>11월 20일</t>
+  </si>
+  <si>
+    <t>11월 21일</t>
+  </si>
+  <si>
+    <t>11월 22일</t>
+  </si>
+  <si>
+    <t>11월 23일</t>
+  </si>
+  <si>
+    <t>11월 24일</t>
+  </si>
+  <si>
+    <t>11월 25일</t>
+  </si>
+  <si>
+    <t>11월 26일</t>
+  </si>
+  <si>
+    <t>11월 27일</t>
+  </si>
+  <si>
+    <t>11월 28일</t>
+  </si>
+  <si>
+    <t>11월 29일</t>
+  </si>
+  <si>
+    <t>11월 30일</t>
+  </si>
+  <si>
+    <t>12월 01일</t>
+  </si>
+  <si>
+    <t>12월 02일</t>
+  </si>
+  <si>
+    <t>12월 03일</t>
+  </si>
+  <si>
+    <t>12월 04일</t>
+  </si>
+  <si>
+    <t>12월 05일</t>
+  </si>
+  <si>
+    <t>12월 06일</t>
+  </si>
+  <si>
+    <t>12월 07일</t>
+  </si>
+  <si>
+    <t>12월 08일</t>
+  </si>
+  <si>
+    <t>12월 09일</t>
+  </si>
+  <si>
+    <t>12월 10일</t>
+  </si>
+  <si>
+    <t>12월 11일</t>
+  </si>
+  <si>
+    <t>12월 12일</t>
+  </si>
+  <si>
+    <t>12월 13일</t>
+  </si>
+  <si>
+    <t>12월 14일</t>
+  </si>
+  <si>
+    <t>12월 15일</t>
+  </si>
+  <si>
+    <t>12월 16일</t>
+  </si>
+  <si>
+    <t>12월 17일</t>
+  </si>
+  <si>
+    <t>12월 18일</t>
+  </si>
+  <si>
+    <t>12월 19일</t>
+  </si>
+  <si>
+    <t>12월 20일</t>
+  </si>
+  <si>
+    <t>12월 21일</t>
+  </si>
+  <si>
+    <t>12월 22일</t>
+  </si>
+  <si>
+    <t>12월 23일</t>
+  </si>
+  <si>
+    <t>12월 24일</t>
+  </si>
+  <si>
+    <t>12월 25일</t>
+  </si>
+  <si>
+    <t>12월 26일</t>
+  </si>
+  <si>
+    <t>12월 27일</t>
+  </si>
+  <si>
+    <t>12월 28일</t>
+  </si>
+  <si>
+    <t>12월 29일</t>
+  </si>
+  <si>
+    <t>12월 30일</t>
+  </si>
+  <si>
+    <t>12월 31일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주차관리팀 </t>
+  </si>
+  <si>
     <t>정대교</t>
-  </si>
-  <si>
-    <t>10월 18일</t>
-  </si>
-  <si>
-    <t>10월 19일</t>
-  </si>
-  <si>
-    <t>10월 20일</t>
-  </si>
-  <si>
-    <t>10월 21일</t>
-  </si>
-  <si>
-    <t>10월 24일</t>
-  </si>
-  <si>
-    <t>10월 25일</t>
-  </si>
-  <si>
-    <t>10월 26일</t>
-  </si>
-  <si>
-    <t>10월 27일</t>
-  </si>
-  <si>
-    <t>10월 28일</t>
-  </si>
-  <si>
-    <t>10월 31일</t>
-  </si>
-  <si>
-    <t>11월 01일</t>
-  </si>
-  <si>
-    <t>11월 02일</t>
-  </si>
-  <si>
-    <t>11월 03일</t>
-  </si>
-  <si>
-    <t>11월 04일</t>
-  </si>
-  <si>
-    <t>11월 07일</t>
-  </si>
-  <si>
-    <t>11월 08일</t>
-  </si>
-  <si>
-    <t>11월 09일</t>
-  </si>
-  <si>
-    <t>11월 10일</t>
-  </si>
-  <si>
-    <t>11월 11일</t>
-  </si>
-  <si>
-    <t>11월 14일</t>
-  </si>
-  <si>
-    <t>11월 15일</t>
-  </si>
-  <si>
-    <t>11월 16일</t>
-  </si>
-  <si>
-    <t>11월 17일</t>
-  </si>
-  <si>
-    <t>11월 18일</t>
-  </si>
-  <si>
-    <t>11월 21일</t>
-  </si>
-  <si>
-    <t>11월 22일</t>
-  </si>
-  <si>
-    <t>11월 23일</t>
-  </si>
-  <si>
-    <t>11월 24일</t>
-  </si>
-  <si>
-    <t>11월 25일</t>
-  </si>
-  <si>
-    <t>11월 28일</t>
-  </si>
-  <si>
-    <t>11월 29일</t>
-  </si>
-  <si>
-    <t>11월 30일</t>
-  </si>
-  <si>
-    <t>12월 01일</t>
-  </si>
-  <si>
-    <t>12월 02일</t>
-  </si>
-  <si>
-    <t>12월 05일</t>
-  </si>
-  <si>
-    <t>12월 06일</t>
-  </si>
-  <si>
-    <t>12월 07일</t>
-  </si>
-  <si>
-    <t>12월 08일</t>
-  </si>
-  <si>
-    <t>12월 09일</t>
-  </si>
-  <si>
-    <t>12월 12일</t>
-  </si>
-  <si>
-    <t>12월 13일</t>
-  </si>
-  <si>
-    <t>12월 14일</t>
-  </si>
-  <si>
-    <t>12월 15일</t>
-  </si>
-  <si>
-    <t>12월 16일</t>
-  </si>
-  <si>
-    <t>12월 19일</t>
-  </si>
-  <si>
-    <t>12월 20일</t>
-  </si>
-  <si>
-    <t>12월 21일</t>
-  </si>
-  <si>
-    <t>12월 22일</t>
-  </si>
-  <si>
-    <t>12월 23일</t>
-  </si>
-  <si>
-    <t>12월 26일</t>
-  </si>
-  <si>
-    <t>12월 27일</t>
-  </si>
-  <si>
-    <t>12월 28일</t>
-  </si>
-  <si>
-    <t>12월 29일</t>
-  </si>
-  <si>
-    <t>12월 30일</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주차관리팀 </t>
   </si>
 </sst>
 </file>
@@ -483,7 +746,7 @@
       <family val="3"/>
       <scheme val="minor"/>
       <sz val="12"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -492,7 +755,7 @@
       <family val="3"/>
       <scheme val="minor"/>
       <sz val="12"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -501,7 +764,7 @@
       <family val="3"/>
       <scheme val="minor"/>
       <sz val="12"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -510,7 +773,7 @@
       <family val="3"/>
       <scheme val="minor"/>
       <sz val="12"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -519,7 +782,7 @@
       <family val="3"/>
       <scheme val="minor"/>
       <sz val="12"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -744,23 +1007,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -796,23 +1042,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1047,16 +1276,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>9</v>
@@ -1077,13 +1306,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>16</v>
@@ -1107,15 +1336,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1135,15 +1366,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1161,16 +1394,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>7</v>
@@ -1187,16 +1420,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1209,16 +1442,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1231,16 +1464,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1253,15 +1486,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1273,15 +1508,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1293,15 +1530,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1313,15 +1552,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1333,16 +1574,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1355,16 +1596,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1377,16 +1618,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1399,13 +1640,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>16</v>
@@ -1421,15 +1662,17 @@
         <v>17</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1441,15 +1684,17 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1461,16 +1706,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1483,16 +1728,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1505,16 +1750,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1527,16 +1772,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1549,13 +1794,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>16</v>
@@ -1571,15 +1816,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -1591,15 +1838,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1610,16 +1859,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -1631,16 +1880,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1652,16 +1901,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -1673,16 +1922,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -1694,13 +1943,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>16</v>
@@ -1815,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
@@ -1873,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>8</v>
@@ -1903,13 +2152,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>16</v>
@@ -1933,15 +2182,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1961,15 +2212,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1987,13 +2240,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>31</v>
@@ -2013,13 +2266,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>19</v>
@@ -2035,13 +2288,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>16</v>
@@ -2057,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>8</v>
@@ -2079,15 +2332,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2099,15 +2354,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2119,15 +2376,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2139,15 +2398,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2159,13 +2420,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>19</v>
@@ -2181,13 +2442,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>16</v>
@@ -2203,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>8</v>
@@ -2225,13 +2486,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>16</v>
@@ -2247,15 +2508,17 @@
         <v>17</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2267,15 +2530,17 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2287,13 +2552,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>31</v>
@@ -2309,13 +2574,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>19</v>
@@ -2331,13 +2596,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>16</v>
@@ -2353,13 +2618,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>8</v>
@@ -2375,13 +2640,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>16</v>
@@ -2397,15 +2662,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2417,15 +2684,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2436,13 +2705,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>31</v>
@@ -2457,13 +2726,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>19</v>
@@ -2478,13 +2747,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>16</v>
@@ -2499,13 +2768,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>8</v>
@@ -2520,13 +2789,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>16</v>
@@ -2535,30 +2804,36 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" ht="27" customHeight="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="9"/>
+    <row r="33" ht="20.1" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="12">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+    <row r="34" ht="27" customHeight="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -2566,14 +2841,14 @@
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -2581,10 +2856,10 @@
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="22"/>
@@ -2596,10 +2871,10 @@
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="22"/>
@@ -2611,28 +2886,43 @@
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="23"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="39" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.1968503937007874" top="0.6299212598425197" bottom="0.15748031496062992" header="0.1968503937007874" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="98" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -3480,7 +3770,7 @@
   <sheetData>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>8</v>
@@ -3539,7 +3829,7 @@
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
@@ -3608,16 +3898,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>9</v>
@@ -3638,16 +3928,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>17</v>
@@ -3668,15 +3958,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
@@ -3696,15 +3988,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
@@ -3722,16 +4016,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>7</v>
@@ -3748,16 +4042,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -3770,13 +4064,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>16</v>
@@ -3792,16 +4086,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -3814,15 +4108,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -3834,15 +4130,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -3854,15 +4152,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -3874,15 +4174,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -3894,16 +4196,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -3916,13 +4218,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>16</v>
@@ -3938,16 +4240,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3960,16 +4262,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -3982,15 +4284,17 @@
         <v>17</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -4002,15 +4306,17 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -4022,16 +4328,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -4044,16 +4350,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -4066,13 +4372,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>16</v>
@@ -4088,16 +4394,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -4110,16 +4416,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -4132,15 +4438,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4152,15 +4460,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -4171,16 +4481,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -4192,16 +4502,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -4213,13 +4523,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>16</v>
@@ -4234,16 +4544,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -4255,45 +4565,51 @@
         <v>30</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" ht="27" customHeight="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="9"/>
+    <row r="33" ht="20.1" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="12">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+    <row r="34" ht="27" customHeight="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -4301,14 +4617,14 @@
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -4316,10 +4632,10 @@
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="22"/>
@@ -4331,10 +4647,10 @@
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="22"/>
@@ -4346,28 +4662,43 @@
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="23"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="39" ht="20.1" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.1968503937007874" top="0.6299212598425197" bottom="0.15748031496062992" header="0.1968503937007874" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="98" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/src/secure-part/output.xlsx
+++ b/src/secure-part/output.xlsx
@@ -287,7 +287,7 @@
       <rPr>
         <color rgb="00000000"/>
       </rPr>
-      <t>김대희</t>
+      <t>김대환</t>
     </r>
   </si>
   <si>
